--- a/data/DAMI29-05.xlsx
+++ b/data/DAMI29-05.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="7470" windowHeight="10665"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="7470" windowHeight="10665"/>
   </bookViews>
   <sheets>
     <sheet name="GLOBAL" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="419">
   <si>
     <t>NECESSIDADE ESTOQUE ONLINE - VENDA DE 01/05/25  A  27/05/25   Estoque:'27/05/25</t>
   </si>
@@ -1276,6 +1276,12 @@
   </si>
   <si>
     <t>TOTAL GERAL</t>
+  </si>
+  <si>
+    <t>Estoque Alto x Venda Baixa</t>
+  </si>
+  <si>
+    <t>produtos com previsão de estoque critico por dias de estoque</t>
   </si>
 </sst>
 </file>
@@ -1728,7 +1734,7 @@
   <dimension ref="A1:AM400"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1838,7 +1844,9 @@
       <c r="K4" s="5"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="N4" s="1" t="s">
+        <v>417</v>
+      </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -1895,6 +1903,9 @@
         <v>1324.98</v>
       </c>
       <c r="K5" s="6"/>
+      <c r="N5" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
